--- a/Тестовый план.xlsx
+++ b/Тестовый план.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\Desktop\QA\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\Desktop\QA\Projects\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95BB34-2BAE-4C3B-8E8B-A3F70FEE1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591AC20A-BA41-4929-93DF-015AF181DABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Дата начала разработки:</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>1. Нажать на кнопку выбора категории товара "Все категории"                                     2. Выбрать категорию "Транспорт/Автомобили"         3. Нажать на кнопку "Добавить в избранное" для первого выданного товара    4. Повторить п. 1-3 ещё 2 раза, используя в п 2 категории "Электроника/Телефоны" и "Недвижимость/Комнаты" соответственно                        5. Нажать на кнопку "Избранное"</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +395,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -413,17 +428,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,548 +728,584 @@
     <col min="1" max="1" width="26.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14" max="17" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" style="2" customWidth="1"/>
+    <col min="15" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5">
         <v>45162</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5">
         <v>45169</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="M11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="24">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="I14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="J14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="L14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="N14" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="13"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="13"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="13"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="13"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1267,10 +1315,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1280,10 +1328,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1293,63 +1341,67 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="M14:M24"/>
+  <mergeCells count="57">
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="H14:H24"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="E14:E24"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="G14:G24"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="N14:N24"/>
     <mergeCell ref="I14:I24"/>
     <mergeCell ref="J14:J24"/>
     <mergeCell ref="K14:K24"/>
     <mergeCell ref="L14:L24"/>
-    <mergeCell ref="G14:G24"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M14:M24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
